--- a/webscrape_data/antwerp_book_fem_data.xlsx
+++ b/webscrape_data/antwerp_book_fem_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Desktop/BassConnections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41074199-64E7-D349-92FA-6ABFFE28DBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13F800-6196-CE4B-9A0A-2CF1C96AD3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>names_antwerp_book_fem</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>http://www.vondel.humanities.uva.nl/ecartico/persons/42770</t>
+  </si>
+  <si>
+    <t>Mechtelt    vanden Wouwere (? - 1612)</t>
+  </si>
+  <si>
+    <t>/ecartico/persons/54960</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/54960</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,6 +590,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
